--- a/data/pca/factorExposure/factorExposure_2009-09-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01719507117261892</v>
+        <v>0.01695757333262309</v>
       </c>
       <c r="C2">
-        <v>0.001491923953635842</v>
+        <v>-0.0009263852920387159</v>
       </c>
       <c r="D2">
-        <v>0.001047882775089069</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008599165596066105</v>
+      </c>
+      <c r="E2">
+        <v>0.001672733180005843</v>
+      </c>
+      <c r="F2">
+        <v>-0.01243077098118417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09975345873585952</v>
+        <v>0.09378381681637062</v>
       </c>
       <c r="C4">
-        <v>0.01979798328945851</v>
+        <v>-0.0144811999476872</v>
       </c>
       <c r="D4">
-        <v>-0.06753019187207956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08376675033846749</v>
+      </c>
+      <c r="E4">
+        <v>0.02843058600085864</v>
+      </c>
+      <c r="F4">
+        <v>0.0320874283217963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1344428055391705</v>
+        <v>0.1587985447922636</v>
       </c>
       <c r="C6">
-        <v>0.0256161580414072</v>
+        <v>-0.02636866234342322</v>
       </c>
       <c r="D6">
-        <v>0.01469421298698245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02291876170648468</v>
+      </c>
+      <c r="E6">
+        <v>0.01036332404183114</v>
+      </c>
+      <c r="F6">
+        <v>0.04394763975256003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06914751024138137</v>
+        <v>0.06348669878282261</v>
       </c>
       <c r="C7">
-        <v>0.002434286484990653</v>
+        <v>0.001679940595592112</v>
       </c>
       <c r="D7">
-        <v>-0.03428356619317944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05288055505190253</v>
+      </c>
+      <c r="E7">
+        <v>0.01184234684448928</v>
+      </c>
+      <c r="F7">
+        <v>0.04774084767831947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06444521168499327</v>
+        <v>0.05733469070107829</v>
       </c>
       <c r="C8">
-        <v>-0.01086046893322463</v>
+        <v>0.01338183678498812</v>
       </c>
       <c r="D8">
-        <v>-0.0160833033018983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03219544451784224</v>
+      </c>
+      <c r="E8">
+        <v>0.0174854508563266</v>
+      </c>
+      <c r="F8">
+        <v>-0.02710020150728806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07735721088879398</v>
+        <v>0.07092184206395456</v>
       </c>
       <c r="C9">
-        <v>0.01686648713973786</v>
+        <v>-0.0101988300321026</v>
       </c>
       <c r="D9">
-        <v>-0.06587189554165973</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08699961641525041</v>
+      </c>
+      <c r="E9">
+        <v>0.02322872223015953</v>
+      </c>
+      <c r="F9">
+        <v>0.04803963376705984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0840393586426668</v>
+        <v>0.09197590234175515</v>
       </c>
       <c r="C10">
-        <v>0.008433307987250378</v>
+        <v>-0.02103481825417075</v>
       </c>
       <c r="D10">
-        <v>0.1708455213309369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1648794645483782</v>
+      </c>
+      <c r="E10">
+        <v>-0.03244061738714477</v>
+      </c>
+      <c r="F10">
+        <v>-0.0551214238700456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09478108646443888</v>
+        <v>0.0880848125048717</v>
       </c>
       <c r="C11">
-        <v>0.0170184385538543</v>
+        <v>-0.01020838579769205</v>
       </c>
       <c r="D11">
-        <v>-0.098123284911923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170417615309664</v>
+      </c>
+      <c r="E11">
+        <v>0.04587143293613954</v>
+      </c>
+      <c r="F11">
+        <v>0.02323896662540675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1013939769073317</v>
+        <v>0.0921789318542752</v>
       </c>
       <c r="C12">
-        <v>0.01541916527461481</v>
+        <v>-0.007619492284502847</v>
       </c>
       <c r="D12">
-        <v>-0.09580055072508993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1319513982849251</v>
+      </c>
+      <c r="E12">
+        <v>0.04607741904618286</v>
+      </c>
+      <c r="F12">
+        <v>0.02927228821811126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04165029357305203</v>
+        <v>0.0415326959101156</v>
       </c>
       <c r="C13">
-        <v>0.006111497182553442</v>
+        <v>-0.002323038269611453</v>
       </c>
       <c r="D13">
-        <v>-0.03703898553730062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05397455009651226</v>
+      </c>
+      <c r="E13">
+        <v>-0.004625009403348732</v>
+      </c>
+      <c r="F13">
+        <v>0.002175192894282082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02283718230795125</v>
+        <v>0.02411760768166375</v>
       </c>
       <c r="C14">
-        <v>0.01521312888060206</v>
+        <v>-0.01380202719471369</v>
       </c>
       <c r="D14">
-        <v>-0.02082746455874418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0328194890267779</v>
+      </c>
+      <c r="E14">
+        <v>0.01861605995903056</v>
+      </c>
+      <c r="F14">
+        <v>0.01370488417579768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03590258926174238</v>
+        <v>0.03273025820028801</v>
       </c>
       <c r="C15">
-        <v>0.007775737603281634</v>
+        <v>-0.004565600833139272</v>
       </c>
       <c r="D15">
-        <v>-0.02438652014041484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04466787426773651</v>
+      </c>
+      <c r="E15">
+        <v>0.005686719465571058</v>
+      </c>
+      <c r="F15">
+        <v>0.02477347759622249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07908691176989911</v>
+        <v>0.07428653241856291</v>
       </c>
       <c r="C16">
-        <v>0.008723984993178745</v>
+        <v>-0.0008095031577985848</v>
       </c>
       <c r="D16">
-        <v>-0.09640208499343424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276406560204457</v>
+      </c>
+      <c r="E16">
+        <v>0.06064628716869955</v>
+      </c>
+      <c r="F16">
+        <v>0.02719711288478685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006262090628980377</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001782482118724377</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001147716758253514</v>
+      </c>
+      <c r="E17">
+        <v>0.0007672501374070856</v>
+      </c>
+      <c r="F17">
+        <v>-0.001119245098024809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.003368203165383219</v>
+        <v>0.03620516204273103</v>
       </c>
       <c r="C18">
-        <v>-0.0009212481194625313</v>
+        <v>0.003016301716967163</v>
       </c>
       <c r="D18">
-        <v>-0.003880144436239203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01617839430523295</v>
+      </c>
+      <c r="E18">
+        <v>-0.008980970525120405</v>
+      </c>
+      <c r="F18">
+        <v>-0.009307800404074768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06283142763727811</v>
+        <v>0.06165689591811378</v>
       </c>
       <c r="C20">
-        <v>0.00652617128098684</v>
+        <v>7.934773124130127e-05</v>
       </c>
       <c r="D20">
-        <v>-0.04031564540582587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07797110146309245</v>
+      </c>
+      <c r="E20">
+        <v>0.05591104561207642</v>
+      </c>
+      <c r="F20">
+        <v>0.02599193538704877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04626306699922179</v>
+        <v>0.0405544873688652</v>
       </c>
       <c r="C21">
-        <v>0.009843315872571081</v>
+        <v>-0.006366938506866401</v>
       </c>
       <c r="D21">
-        <v>-0.01249617702071839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03781695494504622</v>
+      </c>
+      <c r="E21">
+        <v>-0.002021610298638548</v>
+      </c>
+      <c r="F21">
+        <v>-0.02448585799928387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03610827003769416</v>
+        <v>0.04306637673782313</v>
       </c>
       <c r="C22">
-        <v>0.0003926239823712401</v>
+        <v>-0.0003550595253881258</v>
       </c>
       <c r="D22">
-        <v>0.01410339763962228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007095830034607151</v>
+      </c>
+      <c r="E22">
+        <v>0.03533078913182979</v>
+      </c>
+      <c r="F22">
+        <v>-0.03681458724096696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03606671892394649</v>
+        <v>0.04304217138818326</v>
       </c>
       <c r="C23">
-        <v>0.0003845057781663394</v>
+        <v>-0.0003466311458757105</v>
       </c>
       <c r="D23">
-        <v>0.01408024390378169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007111396428602765</v>
+      </c>
+      <c r="E23">
+        <v>0.03551331072757284</v>
+      </c>
+      <c r="F23">
+        <v>-0.03677643424987109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08530377687848996</v>
+        <v>0.07980192146520708</v>
       </c>
       <c r="C24">
-        <v>0.008727548801483501</v>
+        <v>-0.00142042093357918</v>
       </c>
       <c r="D24">
-        <v>-0.1043811007605567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1214286865031539</v>
+      </c>
+      <c r="E24">
+        <v>0.04854531857504042</v>
+      </c>
+      <c r="F24">
+        <v>0.0276048038638017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09344250303455158</v>
+        <v>0.08536049753899173</v>
       </c>
       <c r="C25">
-        <v>0.0107260186215945</v>
+        <v>-0.004206471584988362</v>
       </c>
       <c r="D25">
-        <v>-0.08873508074235775</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095247416368175</v>
+      </c>
+      <c r="E25">
+        <v>0.03200783170849417</v>
+      </c>
+      <c r="F25">
+        <v>0.02762449466130227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05962005448870201</v>
+        <v>0.05897286034449256</v>
       </c>
       <c r="C26">
-        <v>0.01774072291593115</v>
+        <v>-0.01429575773585513</v>
       </c>
       <c r="D26">
-        <v>-0.01278117384717213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04079263667276164</v>
+      </c>
+      <c r="E26">
+        <v>0.02840536525279564</v>
+      </c>
+      <c r="F26">
+        <v>-0.006818850336075311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1341660813951056</v>
+        <v>0.1423436454909969</v>
       </c>
       <c r="C28">
-        <v>0.003936651177602667</v>
+        <v>-0.02232355066179407</v>
       </c>
       <c r="D28">
-        <v>0.2778652714376919</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.261122298932902</v>
+      </c>
+      <c r="E28">
+        <v>-0.06692842494177424</v>
+      </c>
+      <c r="F28">
+        <v>0.007427348500070881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02715910081906686</v>
+        <v>0.02868957213331192</v>
       </c>
       <c r="C29">
-        <v>0.009832430898416209</v>
+        <v>-0.008677516482515734</v>
       </c>
       <c r="D29">
-        <v>-0.01640091941778573</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.031121119306764</v>
+      </c>
+      <c r="E29">
+        <v>0.01381745933539315</v>
+      </c>
+      <c r="F29">
+        <v>-0.0131548394574809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06945096338055423</v>
+        <v>0.05889313570972435</v>
       </c>
       <c r="C30">
-        <v>0.009338070536536652</v>
+        <v>-0.002447601262385004</v>
       </c>
       <c r="D30">
-        <v>-0.07488614706810517</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08958754226430918</v>
+      </c>
+      <c r="E30">
+        <v>0.01539376065328323</v>
+      </c>
+      <c r="F30">
+        <v>0.07859417773298082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05251909522110063</v>
+        <v>0.05091536688794319</v>
       </c>
       <c r="C31">
-        <v>0.01602428784162075</v>
+        <v>-0.01533608679584752</v>
       </c>
       <c r="D31">
-        <v>-0.01946596962164585</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02505242796368434</v>
+      </c>
+      <c r="E31">
+        <v>0.0285908389429317</v>
+      </c>
+      <c r="F31">
+        <v>-0.001419046678763219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04637722372561292</v>
+        <v>0.05108143514716772</v>
       </c>
       <c r="C32">
-        <v>0.001249304204007779</v>
+        <v>0.002033586566664323</v>
       </c>
       <c r="D32">
-        <v>-0.02040272349559096</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03655302006070009</v>
+      </c>
+      <c r="E32">
+        <v>0.03401585850193867</v>
+      </c>
+      <c r="F32">
+        <v>0.003609745340738016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09807887714464322</v>
+        <v>0.08904535532768575</v>
       </c>
       <c r="C33">
-        <v>0.01310382907052376</v>
+        <v>-0.006618608188287745</v>
       </c>
       <c r="D33">
-        <v>-0.07796569698937861</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1012132186123434</v>
+      </c>
+      <c r="E33">
+        <v>0.04320797527373281</v>
+      </c>
+      <c r="F33">
+        <v>0.03797458000977945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07662351911732912</v>
+        <v>0.06782371203353067</v>
       </c>
       <c r="C34">
-        <v>0.01536316977314461</v>
+        <v>-0.009916573386478861</v>
       </c>
       <c r="D34">
-        <v>-0.0884657248789778</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1094051403406832</v>
+      </c>
+      <c r="E34">
+        <v>0.03414724233473263</v>
+      </c>
+      <c r="F34">
+        <v>0.0340579217211443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02285970192449527</v>
+        <v>0.02509977507404034</v>
       </c>
       <c r="C35">
-        <v>0.002448960956935788</v>
+        <v>-0.002500096734621439</v>
       </c>
       <c r="D35">
-        <v>-0.003644302366418546</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01130149049895156</v>
+      </c>
+      <c r="E35">
+        <v>0.0115976871902749</v>
+      </c>
+      <c r="F35">
+        <v>0.001095777981892317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01941665672297547</v>
+        <v>0.02760669825104793</v>
       </c>
       <c r="C36">
-        <v>0.0092069884113452</v>
+        <v>-0.006794198379341963</v>
       </c>
       <c r="D36">
-        <v>-0.0283129863818472</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03988570903470717</v>
+      </c>
+      <c r="E36">
+        <v>0.01648829425569947</v>
+      </c>
+      <c r="F36">
+        <v>0.01586901345437801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0006787410059242583</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005851434418404031</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002502289353870166</v>
+      </c>
+      <c r="E37">
+        <v>-0.001327203695955608</v>
+      </c>
+      <c r="F37">
+        <v>0.0005418014068645081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0008496755405686129</v>
+        <v>-0.0005676737052649311</v>
       </c>
       <c r="C38">
-        <v>-0.0001159552344364208</v>
+        <v>0.0001908494263097424</v>
       </c>
       <c r="D38">
-        <v>-0.001430840018593002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007065114090743524</v>
+      </c>
+      <c r="E38">
+        <v>-0.0003812213032373603</v>
+      </c>
+      <c r="F38">
+        <v>-6.780191317571144e-05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1253096538569561</v>
+        <v>0.1042110760288648</v>
       </c>
       <c r="C39">
-        <v>0.02348919427434257</v>
+        <v>-0.01534040334706209</v>
       </c>
       <c r="D39">
-        <v>-0.1422933857267247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1550088773116959</v>
+      </c>
+      <c r="E39">
+        <v>0.05946475693932479</v>
+      </c>
+      <c r="F39">
+        <v>0.030229833072376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03347901092343792</v>
+        <v>0.0413885673516961</v>
       </c>
       <c r="C40">
-        <v>0.009508881019569976</v>
+        <v>-0.007028253742727523</v>
       </c>
       <c r="D40">
-        <v>0.008924199964040262</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03043910615976793</v>
+      </c>
+      <c r="E40">
+        <v>0.001604369288225141</v>
+      </c>
+      <c r="F40">
+        <v>-0.01537810248005979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02597959344527273</v>
+        <v>0.02798047275723037</v>
       </c>
       <c r="C41">
-        <v>0.007244040544662633</v>
+        <v>-0.006868527057828055</v>
       </c>
       <c r="D41">
-        <v>-0.007365827633402847</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01101829278558097</v>
+      </c>
+      <c r="E41">
+        <v>0.01241303338784878</v>
+      </c>
+      <c r="F41">
+        <v>-0.005738545832277258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03964990305242108</v>
+        <v>0.04074172676983239</v>
       </c>
       <c r="C43">
-        <v>0.008158101325353839</v>
+        <v>-0.007031776946259316</v>
       </c>
       <c r="D43">
-        <v>-0.008077825781775259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01896118298528838</v>
+      </c>
+      <c r="E43">
+        <v>0.02526014817294745</v>
+      </c>
+      <c r="F43">
+        <v>-0.01216419217513405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08284611632200818</v>
+        <v>0.07919787470605177</v>
       </c>
       <c r="C44">
-        <v>0.02680151657337236</v>
+        <v>-0.01911691085655393</v>
       </c>
       <c r="D44">
-        <v>-0.07128890367902688</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09766422954795281</v>
+      </c>
+      <c r="E44">
+        <v>0.06133612875412903</v>
+      </c>
+      <c r="F44">
+        <v>0.1561182162692931</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01818949083355294</v>
+        <v>0.02341366197595835</v>
       </c>
       <c r="C46">
-        <v>0.003988774826202763</v>
+        <v>-0.003260616742393232</v>
       </c>
       <c r="D46">
-        <v>0.000674983524022471</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01346455862938247</v>
+      </c>
+      <c r="E46">
+        <v>0.02630433500091</v>
+      </c>
+      <c r="F46">
+        <v>-0.00576363684563798</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05317808376419082</v>
+        <v>0.05253451939972368</v>
       </c>
       <c r="C47">
-        <v>0.003682461699289566</v>
+        <v>-0.00348975994935856</v>
       </c>
       <c r="D47">
-        <v>-0.003785024591788297</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01312931538213228</v>
+      </c>
+      <c r="E47">
+        <v>0.02342045616908871</v>
+      </c>
+      <c r="F47">
+        <v>-0.03174718346675467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04696200836136816</v>
+        <v>0.05031025109419072</v>
       </c>
       <c r="C48">
-        <v>0.005541865850879443</v>
+        <v>-0.002120669359847622</v>
       </c>
       <c r="D48">
-        <v>-0.03743053639747974</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05030255359223735</v>
+      </c>
+      <c r="E48">
+        <v>-0.004971301556013289</v>
+      </c>
+      <c r="F48">
+        <v>0.01022994083104215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2013251739137742</v>
+        <v>0.2002410293590663</v>
       </c>
       <c r="C49">
-        <v>0.01629378894989066</v>
+        <v>-0.01881625492200622</v>
       </c>
       <c r="D49">
-        <v>0.006468192504670232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006348937500402289</v>
+      </c>
+      <c r="E49">
+        <v>0.03104542859373754</v>
+      </c>
+      <c r="F49">
+        <v>0.03726883429889768</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05231341075987463</v>
+        <v>0.05123448432187729</v>
       </c>
       <c r="C50">
-        <v>0.01204881067407408</v>
+        <v>-0.01106544163967776</v>
       </c>
       <c r="D50">
-        <v>-0.01821384873554576</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02479191339578659</v>
+      </c>
+      <c r="E50">
+        <v>0.03007942243418581</v>
+      </c>
+      <c r="F50">
+        <v>0.009701920211358721</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1586948807919122</v>
+        <v>0.1482579346847962</v>
       </c>
       <c r="C52">
-        <v>0.01612937738309083</v>
+        <v>-0.01703083622928116</v>
       </c>
       <c r="D52">
-        <v>-0.05818618172797124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04259384688183371</v>
+      </c>
+      <c r="E52">
+        <v>0.0202886118177293</v>
+      </c>
+      <c r="F52">
+        <v>0.04368104193297803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1701777155272749</v>
+        <v>0.1712369113811082</v>
       </c>
       <c r="C53">
-        <v>0.01557266772299108</v>
+        <v>-0.01959535376387046</v>
       </c>
       <c r="D53">
-        <v>-0.02715179316538912</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00509975250091161</v>
+      </c>
+      <c r="E53">
+        <v>0.02847673895111338</v>
+      </c>
+      <c r="F53">
+        <v>0.07466987831936452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02223976872565273</v>
+        <v>0.02087830420225994</v>
       </c>
       <c r="C54">
-        <v>0.01233975502825199</v>
+        <v>-0.01130384439012159</v>
       </c>
       <c r="D54">
-        <v>-0.02038843779780707</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03441979179266355</v>
+      </c>
+      <c r="E54">
+        <v>0.02178486370804954</v>
+      </c>
+      <c r="F54">
+        <v>-0.004678393497095064</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1188353794543522</v>
+        <v>0.1146423981980557</v>
       </c>
       <c r="C55">
-        <v>0.01427427936688216</v>
+        <v>-0.01735770678603886</v>
       </c>
       <c r="D55">
-        <v>-0.01954354938817997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007529839733030576</v>
+      </c>
+      <c r="E55">
+        <v>0.02391456113945506</v>
+      </c>
+      <c r="F55">
+        <v>0.04736174997662161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1758114787579936</v>
+        <v>0.1770546808505115</v>
       </c>
       <c r="C56">
-        <v>0.01345201530831391</v>
+        <v>-0.01749936597761886</v>
       </c>
       <c r="D56">
-        <v>-0.005834433139969382</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001756192400983668</v>
+      </c>
+      <c r="E56">
+        <v>0.0338407458471275</v>
+      </c>
+      <c r="F56">
+        <v>0.05213785741539816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04326940993372703</v>
+        <v>0.04477815878685384</v>
       </c>
       <c r="C58">
-        <v>0.00662377902987235</v>
+        <v>0.0005217395653965794</v>
       </c>
       <c r="D58">
-        <v>-0.04702894650492043</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07177905999224685</v>
+      </c>
+      <c r="E58">
+        <v>0.03246899223794868</v>
+      </c>
+      <c r="F58">
+        <v>-0.03931755606465296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1662684454744502</v>
+        <v>0.1679653250948321</v>
       </c>
       <c r="C59">
-        <v>0.004933298695632711</v>
+        <v>-0.02241344970390268</v>
       </c>
       <c r="D59">
-        <v>0.2264981238377127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2171486909448452</v>
+      </c>
+      <c r="E59">
+        <v>-0.04596633272986232</v>
+      </c>
+      <c r="F59">
+        <v>-0.03577621174094717</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2435204346311881</v>
+        <v>0.2318770213182567</v>
       </c>
       <c r="C60">
-        <v>-0.004557363556726632</v>
+        <v>0.002369945949223447</v>
       </c>
       <c r="D60">
-        <v>-0.05824862533278205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04125401446035327</v>
+      </c>
+      <c r="E60">
+        <v>0.009134412878835587</v>
+      </c>
+      <c r="F60">
+        <v>-0.00520502056599859</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09528675248756677</v>
+        <v>0.08030587821619513</v>
       </c>
       <c r="C61">
-        <v>0.01719681434516197</v>
+        <v>-0.01108583737086145</v>
       </c>
       <c r="D61">
-        <v>-0.09555467445828807</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1178306048636025</v>
+      </c>
+      <c r="E61">
+        <v>0.03920639042658653</v>
+      </c>
+      <c r="F61">
+        <v>0.0139109970227378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1733947441181112</v>
+        <v>0.1695923752374441</v>
       </c>
       <c r="C62">
-        <v>0.01683829085594268</v>
+        <v>-0.02048368915800128</v>
       </c>
       <c r="D62">
-        <v>-0.009521068977715815</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005722387228509057</v>
+      </c>
+      <c r="E62">
+        <v>0.03386562570022202</v>
+      </c>
+      <c r="F62">
+        <v>0.0357923458465953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0463646673745432</v>
+        <v>0.04576535219272011</v>
       </c>
       <c r="C63">
-        <v>0.006078471420359896</v>
+        <v>-0.001599232970142393</v>
       </c>
       <c r="D63">
-        <v>-0.03917330253241623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0591463078096015</v>
+      </c>
+      <c r="E63">
+        <v>0.023244752504396</v>
+      </c>
+      <c r="F63">
+        <v>0.003679715390148117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1031859903970248</v>
+        <v>0.1104635648500362</v>
       </c>
       <c r="C64">
-        <v>0.01401627776684123</v>
+        <v>-0.01129379110282365</v>
       </c>
       <c r="D64">
-        <v>-0.01921990760287557</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0434315963803942</v>
+      </c>
+      <c r="E64">
+        <v>0.02226341738581972</v>
+      </c>
+      <c r="F64">
+        <v>0.02560050730103516</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1288095668637975</v>
+        <v>0.1500693080280153</v>
       </c>
       <c r="C65">
-        <v>0.03118674599915479</v>
+        <v>-0.03383589641333666</v>
       </c>
       <c r="D65">
-        <v>0.03129163897766329</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04304607392520175</v>
+      </c>
+      <c r="E65">
+        <v>0.006674442102393268</v>
+      </c>
+      <c r="F65">
+        <v>0.03873276051664759</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1511810862013385</v>
+        <v>0.1237572406968058</v>
       </c>
       <c r="C66">
-        <v>0.02011773748428595</v>
+        <v>-0.01324663632238874</v>
       </c>
       <c r="D66">
-        <v>-0.1236678350056544</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1434152990109476</v>
+      </c>
+      <c r="E66">
+        <v>0.06543684613463847</v>
+      </c>
+      <c r="F66">
+        <v>0.03470336789598075</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06376922287704666</v>
+        <v>0.05747718499951758</v>
       </c>
       <c r="C67">
-        <v>0.005124547040791973</v>
+        <v>-0.002713927968078956</v>
       </c>
       <c r="D67">
-        <v>-0.06026227621530699</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05610543224648872</v>
+      </c>
+      <c r="E67">
+        <v>0.01654535930975689</v>
+      </c>
+      <c r="F67">
+        <v>-0.03120819129524114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1051100602818814</v>
+        <v>0.1164282704801278</v>
       </c>
       <c r="C68">
-        <v>0.0143663122771032</v>
+        <v>-0.03291639967646925</v>
       </c>
       <c r="D68">
-        <v>0.2674716030073347</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609739056282687</v>
+      </c>
+      <c r="E68">
+        <v>-0.08696147857366719</v>
+      </c>
+      <c r="F68">
+        <v>0.003352549922464971</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0408419697352002</v>
+        <v>0.03912108231681072</v>
       </c>
       <c r="C69">
-        <v>0.000410931013823713</v>
+        <v>-0.001105530422828318</v>
       </c>
       <c r="D69">
-        <v>-0.01049141677068325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008480444015676368</v>
+      </c>
+      <c r="E69">
+        <v>0.02392903102704552</v>
+      </c>
+      <c r="F69">
+        <v>0.0005744309818155338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06283187224529248</v>
+        <v>0.06677461165559154</v>
       </c>
       <c r="C70">
-        <v>-0.02423305918017751</v>
+        <v>0.02746993156281723</v>
       </c>
       <c r="D70">
-        <v>0.02598907623876298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02360942671553396</v>
+      </c>
+      <c r="E70">
+        <v>-0.03327359825797423</v>
+      </c>
+      <c r="F70">
+        <v>-0.1856465069529331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1186435220352417</v>
+        <v>0.1363554176718561</v>
       </c>
       <c r="C71">
-        <v>0.01823799813584806</v>
+        <v>-0.03730418020957477</v>
       </c>
       <c r="D71">
-        <v>0.2868310002482379</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2726792703418856</v>
+      </c>
+      <c r="E71">
+        <v>-0.09754129538076328</v>
+      </c>
+      <c r="F71">
+        <v>0.008937554858308532</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1379506652000487</v>
+        <v>0.1425729162533657</v>
       </c>
       <c r="C72">
-        <v>0.02453263564333426</v>
+        <v>-0.02710256248329223</v>
       </c>
       <c r="D72">
-        <v>-0.005275660144279956</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003317394898794617</v>
+      </c>
+      <c r="E72">
+        <v>0.03595230880897411</v>
+      </c>
+      <c r="F72">
+        <v>0.03214616046020291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.200701574331881</v>
+        <v>0.2040738706325344</v>
       </c>
       <c r="C73">
-        <v>0.01210939129451693</v>
+        <v>-0.01276378442010627</v>
       </c>
       <c r="D73">
-        <v>-0.0213246855484648</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01744530229752657</v>
+      </c>
+      <c r="E73">
+        <v>0.06342568870068532</v>
+      </c>
+      <c r="F73">
+        <v>0.03733117488703149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09330962189059393</v>
+        <v>0.09495706920759729</v>
       </c>
       <c r="C74">
-        <v>0.01120629122260198</v>
+        <v>-0.01332358138380825</v>
       </c>
       <c r="D74">
-        <v>-0.03200905614091076</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01693363497193274</v>
+      </c>
+      <c r="E74">
+        <v>0.04423172757488737</v>
+      </c>
+      <c r="F74">
+        <v>0.05835737779801168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1378091996298784</v>
+        <v>0.1276368761490537</v>
       </c>
       <c r="C75">
-        <v>0.0261807408934183</v>
+        <v>-0.02815033972574248</v>
       </c>
       <c r="D75">
-        <v>-0.04027720224823957</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03031187307511784</v>
+      </c>
+      <c r="E75">
+        <v>0.05808058236838166</v>
+      </c>
+      <c r="F75">
+        <v>0.02292830437510528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07166378546378775</v>
+        <v>0.08823464030844262</v>
       </c>
       <c r="C77">
-        <v>0.01582792514420037</v>
+        <v>-0.008003239374162457</v>
       </c>
       <c r="D77">
-        <v>-0.09276909144467073</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1115932639027055</v>
+      </c>
+      <c r="E77">
+        <v>0.03833021752874231</v>
+      </c>
+      <c r="F77">
+        <v>0.03586747037965579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1057449825705173</v>
+        <v>0.101224369493966</v>
       </c>
       <c r="C78">
-        <v>0.04689278803114239</v>
+        <v>-0.03966742426298973</v>
       </c>
       <c r="D78">
-        <v>-0.1009218991519726</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1125876865942823</v>
+      </c>
+      <c r="E78">
+        <v>0.07436583338140886</v>
+      </c>
+      <c r="F78">
+        <v>0.04928918734908445</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1661235686728445</v>
+        <v>0.1637530085332238</v>
       </c>
       <c r="C79">
-        <v>0.02040645829826699</v>
+        <v>-0.02285469716165925</v>
       </c>
       <c r="D79">
-        <v>-0.0132946660741427</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01458508027123574</v>
+      </c>
+      <c r="E79">
+        <v>0.04627587451158542</v>
+      </c>
+      <c r="F79">
+        <v>0.01290073725639108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.09102595271787273</v>
+        <v>0.08210088082284663</v>
       </c>
       <c r="C80">
-        <v>0.0005566360171479415</v>
+        <v>0.001099893796424378</v>
       </c>
       <c r="D80">
-        <v>-0.05161077803982305</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05628610907670106</v>
+      </c>
+      <c r="E80">
+        <v>0.03574969171060009</v>
+      </c>
+      <c r="F80">
+        <v>-0.02164074883568119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1216197123337884</v>
+        <v>0.118905409608588</v>
       </c>
       <c r="C81">
-        <v>0.0287057354346861</v>
+        <v>-0.03182395004031745</v>
       </c>
       <c r="D81">
-        <v>-0.04699754748471191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01547859442931319</v>
+      </c>
+      <c r="E81">
+        <v>0.05702787081409598</v>
+      </c>
+      <c r="F81">
+        <v>0.01899883727158237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1653075634245484</v>
+        <v>0.1653719140537208</v>
       </c>
       <c r="C82">
-        <v>0.02031646566423594</v>
+        <v>-0.02480539301869391</v>
       </c>
       <c r="D82">
-        <v>-0.03022284376217717</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004078408366305735</v>
+      </c>
+      <c r="E82">
+        <v>0.02632274538893001</v>
+      </c>
+      <c r="F82">
+        <v>0.08177723727376091</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07135818274294377</v>
+        <v>0.05830282960630356</v>
       </c>
       <c r="C83">
-        <v>0.005441591932209723</v>
+        <v>-0.002594791137936106</v>
       </c>
       <c r="D83">
-        <v>-0.03054147888963638</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0510636139079642</v>
+      </c>
+      <c r="E83">
+        <v>0.003117157244245565</v>
+      </c>
+      <c r="F83">
+        <v>-0.03049456092232802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07018067033575082</v>
+        <v>0.05985336389484298</v>
       </c>
       <c r="C84">
-        <v>0.01437525773445905</v>
+        <v>-0.01122801211945871</v>
       </c>
       <c r="D84">
-        <v>-0.05140685676724976</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06325419551165333</v>
+      </c>
+      <c r="E84">
+        <v>0.007401317318175195</v>
+      </c>
+      <c r="F84">
+        <v>0.005918448283030223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1388345636516439</v>
+        <v>0.1356176378505214</v>
       </c>
       <c r="C85">
-        <v>0.02573675101675768</v>
+        <v>-0.0281435953673363</v>
       </c>
       <c r="D85">
-        <v>-0.02132214501221389</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009320699251816916</v>
+      </c>
+      <c r="E85">
+        <v>0.03623169782716282</v>
+      </c>
+      <c r="F85">
+        <v>0.04826910462995949</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09970370081822311</v>
+        <v>0.09495166609227075</v>
       </c>
       <c r="C86">
-        <v>-0.002016423339648586</v>
+        <v>0.005536742197541835</v>
       </c>
       <c r="D86">
-        <v>0.02966671015909664</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04236789464750974</v>
+      </c>
+      <c r="E86">
+        <v>0.2309249524017303</v>
+      </c>
+      <c r="F86">
+        <v>-0.9034401966704866</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1034471837651999</v>
+        <v>0.09423867297002027</v>
       </c>
       <c r="C87">
-        <v>0.02768607031513513</v>
+        <v>-0.01908522459771067</v>
       </c>
       <c r="D87">
-        <v>-0.04904657254797885</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0942519636326327</v>
+      </c>
+      <c r="E87">
+        <v>-0.05437068232371113</v>
+      </c>
+      <c r="F87">
+        <v>0.0467739699260447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05804618531114288</v>
+        <v>0.06070803624013908</v>
       </c>
       <c r="C88">
-        <v>0.005542468789378185</v>
+        <v>-0.002127955935110643</v>
       </c>
       <c r="D88">
-        <v>-0.04566293008620704</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04982542156206661</v>
+      </c>
+      <c r="E88">
+        <v>0.02450993636149281</v>
+      </c>
+      <c r="F88">
+        <v>0.01404858705940898</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1190261937200119</v>
+        <v>0.130133615426044</v>
       </c>
       <c r="C89">
-        <v>-0.003222569608604</v>
+        <v>-0.01365145109259089</v>
       </c>
       <c r="D89">
-        <v>0.2807510320296899</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2464991573202626</v>
+      </c>
+      <c r="E89">
+        <v>-0.08871396264346475</v>
+      </c>
+      <c r="F89">
+        <v>-0.009385956397867653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1321814209988147</v>
+        <v>0.1512419038713548</v>
       </c>
       <c r="C90">
-        <v>0.01505961856837236</v>
+        <v>-0.03414333253828017</v>
       </c>
       <c r="D90">
-        <v>0.2908506993810328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2715423158716754</v>
+      </c>
+      <c r="E90">
+        <v>-0.1138827374160198</v>
+      </c>
+      <c r="F90">
+        <v>-0.008133036739752887</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1195335768872322</v>
+        <v>0.1210003141221684</v>
       </c>
       <c r="C91">
-        <v>0.0155485760714587</v>
+        <v>-0.0198018815179139</v>
       </c>
       <c r="D91">
-        <v>0.001875388317318817</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01515492424125542</v>
+      </c>
+      <c r="E91">
+        <v>0.05545487546924844</v>
+      </c>
+      <c r="F91">
+        <v>-0.0002263206140511574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1436164845819479</v>
+        <v>0.1478771800777817</v>
       </c>
       <c r="C92">
-        <v>0.003094564430287502</v>
+        <v>-0.02480846168761955</v>
       </c>
       <c r="D92">
-        <v>0.3162237254424586</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2912478553106429</v>
+      </c>
+      <c r="E92">
+        <v>-0.1013282145830117</v>
+      </c>
+      <c r="F92">
+        <v>-0.012866831140853</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1349646456727858</v>
+        <v>0.1512794830196903</v>
       </c>
       <c r="C93">
-        <v>0.01059371223841333</v>
+        <v>-0.02915350355494053</v>
       </c>
       <c r="D93">
-        <v>0.2720846569429546</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.267342217294507</v>
+      </c>
+      <c r="E93">
+        <v>-0.07850428573898867</v>
+      </c>
+      <c r="F93">
+        <v>0.002900243571630607</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1354522150633832</v>
+        <v>0.1282658303195613</v>
       </c>
       <c r="C94">
-        <v>0.02348552708523901</v>
+        <v>-0.02444474375359339</v>
       </c>
       <c r="D94">
-        <v>-0.05665286643523056</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04208438556080421</v>
+      </c>
+      <c r="E94">
+        <v>0.05740094580738023</v>
+      </c>
+      <c r="F94">
+        <v>0.03654460875367081</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1255005257298492</v>
+        <v>0.1266650568103891</v>
       </c>
       <c r="C95">
-        <v>0.01006362581925693</v>
+        <v>-0.003064123064956844</v>
       </c>
       <c r="D95">
-        <v>-0.06910022869568931</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09483979112795797</v>
+      </c>
+      <c r="E95">
+        <v>0.04974826159855234</v>
+      </c>
+      <c r="F95">
+        <v>-0.005971037219719379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.0974204650925178</v>
+        <v>0.1086863724341936</v>
       </c>
       <c r="C96">
-        <v>-0.9897822591119984</v>
+        <v>0.9871270381596926</v>
       </c>
       <c r="D96">
-        <v>-0.008873087747188167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05181894781656102</v>
+      </c>
+      <c r="E96">
+        <v>0.05303315892325981</v>
+      </c>
+      <c r="F96">
+        <v>0.04272851979371362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1865106792816073</v>
+        <v>0.1910037820027929</v>
       </c>
       <c r="C97">
-        <v>-0.008953946941818719</v>
+        <v>0.006959782638017</v>
       </c>
       <c r="D97">
-        <v>0.02287731689730491</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01971283403825806</v>
+      </c>
+      <c r="E97">
+        <v>0.02219313417172628</v>
+      </c>
+      <c r="F97">
+        <v>-0.09495829273718069</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1948604038379904</v>
+        <v>0.2053284192595322</v>
       </c>
       <c r="C98">
-        <v>0.007542877178019535</v>
+        <v>-0.006897847516532655</v>
       </c>
       <c r="D98">
-        <v>0.004613433616108858</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01282085703590977</v>
+      </c>
+      <c r="E98">
+        <v>-0.07807501546924298</v>
+      </c>
+      <c r="F98">
+        <v>-0.09415047729020398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05505145516557799</v>
+        <v>0.05479597161096636</v>
       </c>
       <c r="C99">
-        <v>-0.002748748935612309</v>
+        <v>0.004569249818727586</v>
       </c>
       <c r="D99">
-        <v>-0.02110891800061258</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03944029722271852</v>
+      </c>
+      <c r="E99">
+        <v>0.02215072644340125</v>
+      </c>
+      <c r="F99">
+        <v>0.002844822467434662</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.136919553101256</v>
+        <v>0.1277874113085841</v>
       </c>
       <c r="C100">
-        <v>-0.03142575817206464</v>
+        <v>0.05374880205345732</v>
       </c>
       <c r="D100">
-        <v>-0.3888361792818624</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3461393305069288</v>
+      </c>
+      <c r="E100">
+        <v>-0.8854871090929979</v>
+      </c>
+      <c r="F100">
+        <v>-0.1592787519393282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02697733526068664</v>
+        <v>0.02865273450950816</v>
       </c>
       <c r="C101">
-        <v>0.009788438977224458</v>
+        <v>-0.008702924847198548</v>
       </c>
       <c r="D101">
-        <v>-0.01574293698790297</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03072378350837407</v>
+      </c>
+      <c r="E101">
+        <v>0.01321661377691985</v>
+      </c>
+      <c r="F101">
+        <v>-0.01437838313812444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
